--- a/Figure_6_Revision/Data/GO for clusters/cluster1_gProfiler_athaliana_11-12-2023_8-16-10 PM__intersections.xlsx
+++ b/Figure_6_Revision/Data/GO for clusters/cluster1_gProfiler_athaliana_11-12-2023_8-16-10 PM__intersections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peimi\Sync\0_dinglab_private\phd\2_phd_2022_erc_1_pei_ming_yeh\RNAseq_analysis\RNA-seq final\GO for clusters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhh/Documents/GitHub/ETI_Project/Figure_6_Revision/Data/GO for clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B636BA-B5EA-4F0D-9041-80C3A8C708CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975E2FD2-32A6-7E4E-B5A2-C313F96FEE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster1_gProfiler_athaliana_11" sheetId="1" r:id="rId1"/>
@@ -1655,9 +1655,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1695,7 +1695,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1801,7 +1801,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1943,7 +1943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1953,16 +1953,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A125" sqref="A125:XFD128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="140.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>74</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>74</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>74</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>74</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>74</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>74</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>74</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>74</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>74</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>74</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>74</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>74</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>74</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>74</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>74</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>74</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>74</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>74</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>344</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>344</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>344</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>344</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>357</v>
       </c>
@@ -6487,15 +6487,15 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="140.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="140.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6530,42 +6530,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.81222025539381E-5</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>4.7417890197447603</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1271</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>160</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>28</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>23212</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7090,42 +7090,42 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>4.06996844205905E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1.3904089582177099</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>129</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>160</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>23212</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -7277,16 +7277,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C9FE4E-E257-46DB-9B49-53868CF72872}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7321,11 +7322,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
@@ -7356,7 +7357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -7461,11 +7462,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C6" t="s">
@@ -7496,7 +7497,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -8021,11 +8022,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C22" t="s">
@@ -8056,11 +8057,11 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C23" t="s">
@@ -8091,7 +8092,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -8161,7 +8162,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -8511,7 +8512,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -8651,11 +8652,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C40" t="s">
@@ -8686,7 +8687,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -8931,7 +8932,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -9106,11 +9107,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>74</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C53" t="s">
@@ -9141,7 +9142,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -9631,11 +9632,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C68" t="s">
@@ -9666,7 +9667,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -9981,11 +9982,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C78" t="s">
@@ -10016,7 +10017,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>74</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>74</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>74</v>
       </c>
@@ -10156,7 +10157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>74</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>74</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>74</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>74</v>
       </c>
@@ -10541,7 +10542,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>74</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>74</v>
       </c>
@@ -10611,11 +10612,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>74</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C96" t="s">
@@ -10646,7 +10647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -10856,7 +10857,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>74</v>
       </c>
@@ -10907,12 +10908,12 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>344</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>344</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>344</v>
       </c>
